--- a/js动画animate.xlsx
+++ b/js动画animate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A31DE44-3EC3-4738-BABB-4AFEA92A5DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E312CF0-904E-431C-8CCE-B0CCB8974B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="三大家族的区别" sheetId="4" r:id="rId4"/>
     <sheet name="css动画前期01" sheetId="5" r:id="rId5"/>
     <sheet name="css动画前期02" sheetId="6" r:id="rId6"/>
+    <sheet name="css动画01" sheetId="7" r:id="rId7"/>
+    <sheet name="css动画02" sheetId="8" r:id="rId8"/>
+    <sheet name="Html02" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc14654" localSheetId="2">client!$G$31</definedName>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="309">
   <si>
     <t>js动画的核心是 定时 +位移,有三大核心家族offset /scroll/client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,29 +1587,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>椭圆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/*横轴 1234 / 纵轴1234*/
    /*border-radius: 200px 200px 200px 200px / 100px 100px 100px 100px;*/
    border-radius: 200px/100px;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外置阴影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inset可以设置内阴影</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>box-shadow: inset 5px 5px 27px red, inset -5px -5px 27px green;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边框图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2327,12 +2314,1276 @@
     <t>div[class] 含有class 属性的全部选中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> /*多个阴影用 逗号 隔开*/
+            text-shadow: 25px 27px 21px  darkblue , -50px -50px 21px  red;</t>
+  </si>
+  <si>
+    <t>.box2{
+         width: 240px;
+            height: 120px;
+            border: 1px solid #000;
+            background-color: pink;
+            border-radius: 120px 120px 120px 120px  / 60px 60px 60px 60px ;
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /* 复合写法
+                border-raduis:水平半径/垂直半径
+            */
+            /*border-radius: 60px 60px 60px 60px/ 120px 120px 120px 120px ;*/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* 赋值顺序 从左上开始，顺时针赋值,如果当前角没有值，取对角的值  */
+            /*border-radius: 20px 60px 100px 140px;*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     div:nth-child(1){
+            border-radius: 100px;
+        }
+        div:nth-child(2){
+            border-radius: 50%;
+        }
+        div:nth-child(3){
+            border-radius: 200px 0 0 0;
+        }
+        div:nth-child(4){
+            height:100px;
+            line-height: 100px;
+            border-radius: 100px/50px;
+        }
+        div:nth-child(5){
+            width: 100px;
+            border-radius: 50%;
+        }
+        div:nth-child(6){
+            border-radius: 0 100px;
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> .box{
+            width: 200px;
+            height: 300px;
+            margin:100px auto;
+            background-color: #fff;
+            border: 1px solid #000;
+            /*昨天的经验 会成为明天进步的障碍，所以需要不断学习！*/
+            /*box-shadow: 水平位移 垂直位移  模糊程度  阴影大小 阴影颜色 外/内阴影(inset)  外阴影不用写 */
+            box-shadow: 15px 21px 48px -2px #666,3px 3px 3px 3px #666 inset,-15px -21px 48px -2px darkgoldenrod;
+            /*box-shadow:3px 3px 3px 3px #666 inset;*/
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       .box{
+            width: 500px;
+            height: 500px;
+            border: 1px solid #000;
+            margin:100px auto;
+            background:url(images/baby0.jpg) no-repeat;
+            /* 控制背景的大小*/
+            /*具体数值*/
+            /*background-size: 500px 500px;*/
+            /* 百分比*/
+            /*background-size:50% 50%;*/
+            /* cover  覆盖   contain: 包含*/
+            /* cover 会保证完全覆盖盒子，但不能保证完整显示  完全填充盒子*/
+            /*background-size:cover;*/
+            /*contain :包含*/
+            /* 保证背景图片最大化的在盒子中等比例显示，但不保证能铺满盒子 完全 显示图片*/
+            background-size: contain;
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        .box{
+            width: 500px;
+            height: 500px;
+            border: 30px solid rgba(0,0,255,0.3);
+            padding:30px;
+            background:url(images/baby0.jpg) no-repeat;
+            background-size: cover;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         /* 背景原点  控制背景从什么地方开始显示*/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+            /*(默认值)*/
+            /*background-origin: padding-box;*/
+            /*从border-box开始显示*/
+            /*background-origin: border-box;*/
+            /*从content-box开始显示*/
+            background-origin: content-box;
+        /*(默认值)*/
+        }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        .box{
+            width: 500px;
+            height: 500px;
+            border: 30px solid rgba(0,0,255,0.3);
+            padding:30px;
+            background:url(images/baby0.jpg) no-repeat;
+            /* 设置背景原点*/
+            background-origin: border-box;
+            /* 背景裁剪*/
+            /* border-box :从 border-box开始裁剪
+               padding-box :从 padding-box开始裁剪
+               content-box :从 content-box开始裁剪
+            */
+            background-clip:content-box;
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        .box{
+            width: 623px;
+            height: 416px;
+            border: 1px solid #000;
+            margin:100px auto;
+            /* 给盒子加多个背景，按照背景语法格式书写，多个背景使用逗号隔开 */
+            background: url(images/bg1.png) no-repeat left top
+                        ,url(images/bg2.png) no-repeat right top
+                        ,url(images/bg3.png) no-repeat right bottom
+                        ,url(images/bg4.png) no-repeat left bottom
+                        ,url(images/bg5.png) no-repeat center;
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  /* 语法：
+            linear-gradient(方向，起始颜色，终止颜色);
+            方向：to left   to right  to top   to bottom 　角度　30deg
+            起始颜色
+            终止颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div:nth-child(1){
+   background-image: linear-gradient(to right,yellow,green);
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*默认的的颜色时从上到下*/
+  div:nth-child(2){
+   background-image: linear-gradient(yellow,green);
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /*带角度的渐变*/
+  div:nth-child(3){
+   width: 200px;
+   height: 200px;
+   background-image: linear-gradient(135deg,yellow,green);
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*指定颜色的百分比*/
+       div:nth-child(4){
+        background-image: linear-gradient(to right,yellow 0%,
+         red 40%,
+         green 70%,
+         blue 100%
+        );
+       }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">div:nth-child(5){
+   background-image: linear-gradient(45deg,
+   yellow 0%,
+   yellow 25%,
+   blue  25%,
+   blue 50%,
+   red 50%,
+   red 75%,
+   green 75%,
+   green 100%
+   );
+  }
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div:nth-child(6){
+   background-image: linear-gradient(135deg,
+     #000 0%,
+                #000 25%,
+                #fff 25%,
+                #fff 50%,
+                #000 50%,
+                #000 75%,
+                #fff 75%,
+                #fff 100%
+   );
+   /*background-repeat: no-repeat;*/
+   background-size: 100px 100%;
+   animation: gun 1s infinite linear;
+  } 
+  /*动画的方法*/
+        @keyframes gun {
+            0%{
+            }
+            100%{
+                background-position: 100px 0px;
+            }
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  /*
+            径向渐变：
+            radial-gradient（辐射半径, 中心的位置，起始颜色，终止颜色）;
+            中心点位置：at  left  right  center bottom  top
+        */ div:nth-child(1){
+        background-image: radial-gradient(at left top,yellow,green);
+       }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*100px 指定径向渐变的半径长度*/
+  div:nth-child(3){
+   background-image: radial-gradient(100px at center,yellow ,green);
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> div:nth-child(4){
+        background-image: radial-gradient(100px at center,
+            yellow 0% ,
+            green 30%,
+            blue 60%,
+            red 100%);
+       }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div:nth-child(5){
+    background-image: radial-gradient(100px 50px  at center,yellow ,green);
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    .box{
+            width: 200px;
+            height: 200px;
+            border: 1px solid #000;
+            margin:100px auto;
+            background-color: red;
+            /* 过渡属性*/
+            /*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:width 2s,background-color 2s;*/
+            /* 如果多个过度的 特性是一样的 可以简写*/
+            /* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: 过渡属性 持续时间  运动曲线 延迟时间*/
+            /*transition:all 4s linear 1s ;*/
+           transition: background-color 4s linear 0.5s;
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: all 4s linear 0.5s;
+            /* 过渡必须加给盒子本身*/
+        }
+        .box:hover{
+            width: 600px;
+            background-color: blue;
+            /*height:400px;*/
+        }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.box{
+            width: 300px;
+            height: 100px;
+            margin:100px auto;
+            border-radius: 10px;
+            background:url(images/paopao.png) no-repeat left top,
+            url(images/paopao.png) no-repeat right bottom;
+            background-color: blue;
+            /*添加过渡*/
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:all 2s linear 1s;
+        }
+        .box:hover{
+         /*上面有两个背景图 所以下面有两个定位*/
+           background-position: right bottom,left top;
+        }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过渡气泡transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> div:nth-child(2):hover{
+            /*width: 600px;*/
+            /* 变形*/
+            /*
+                scale: 缩放
+                scale(水平放缩比例，垂直放缩比例)；
+                大于1：放大
+                小于1：缩小
+                如果只写一个值等比例缩放
+            */
+            /*transform: scale(2,0.5);*/
+           /* transform: scale(0.5);*/
+          transform: scale(1.5,2);
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 变换放缩 transform--scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D位移transform: translate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  /* translate:(水平位移，垂直位移)；
+            正值：向右向下
+            负值：向左向上
+            如果只写一个值 水平移动
+            百分比 ：相对于自身移动
+        */
+        div:nth-child(2):hover{
+            /*transform:translate(-50%,-50%);*/
+           /*transform: translate(20px,30px);*/
+          transform: translate(300px);
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用transform:translate 位移居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      div{
+            width: 300px;
+            height: 100px;
+            background-color: red;
+            position: absolute;
+            left:50%;   /*先通过定位 移动到盒子的50% 位置然后再回移 宽度的一半就到盒子中央  居中了了*/
+            top:100px;
+        }
+        div:nth-child(1){
+            margin-left:-150px; /*先通过定位 移动到盒子的50% 位置然后再回移 宽度的一半就到盒子中央  居中了了*/
+        }
+        div:nth-child(2){
+            top:300px;
+            /* 水平方向上向左走自己宽度的一半*/
+            /*推荐的写法*/
+            transform:translate(-50%);
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       /* rotate（角度） 旋转
+         * 本页面 就 针对 deg 角度的正负
+            正值 顺时针
+            赋值：逆时针
+        */
+        .box:hover{
+            transform:rotate(-945deg);
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D 旋转transform:rotate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椭圆border-radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外置阴影box-shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inset可以设置内阴影box-shadow  inset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框图片border-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆角border-radius:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框阴影box-shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景尺寸  background-size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景原点 background-origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景剪切   background-clip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多背景 background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性渐变  linear-gradient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性渐变---动画  background-image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>径向渐变   radial-gradient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过渡体验  transition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边框的形状</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  .box{
+            width: 30px;
+            height: 30px;
+            border:100px solid red;
+   /*设置不同边框位的颜色*/
+            border-right-color: blue;
+            border-bottom-color: red;
+            border-top-color: yellow;
+            border-bottom-color: pink;
+        }
+        .box2{
+            width: 100px;
+            height: 100px;
+            border: 50px solid red;
+            border-right: none;
+            border-bottom-right-radius: 10px;
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 变换x transform:rotateX(360deg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        .rotateX{
+            width: 300px;
+            height: 226px;
+            margin:200px auto;
+            /* 透视 :加给变换的父盒子*/
+            /* 设置的是用户的眼睛距离 平面的距离*/
+            /* 透视效果只是视觉上的呈现，并不是正真的3d*/
+            /*使用透视 就是为实现 近大远小的视觉效果*/
+            perspective: 110px;
+           perspective: 210px;
+            /* 所有的3d旋转，对着正方向去看，都是顺时针旋转*/
+        }
+        img{
+            /* 过渡*/
+            transition:transform 2s;
+        }
+        .rotateX:hover img{
+            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transform:rotateX(360deg);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 变换y transform:rotateY(360deg);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        .rotateY{
+            width: 237px;
+            height: 300px;
+            margin:100px auto;
+            /*透视*/
+            perspective: 150px;
+        }
+        img{
+            transition:all 2s;
+        }
+        .rotateY:hover img{
+            transform:rotateY(360deg);
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 变换z transform:rotateZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        .rotateZ{
+            width: 330px;
+            height: 227px;
+            margin:100px auto;
+    /* 透视 :加给变换的父盒子*/
+            /* 设置的是用户的眼睛距离 平面的距离*/
+            /* 透视效果只是视觉上的呈现，并不是正真的3d*/
+            /* 透视*/
+           /*注意观察旋转的方式*/
+           /*使用透视 就是为实现 近大远小的效果*/
+            perspective: 200px;
+        }
+        img{transition:all 1s;}
+        .rotateZ:hover img{
+            transform:rotateZ(360deg);
+        }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 透视 transform-style: preserve-3d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head lang="en"&gt;
+    &lt;meta charset="UTF-8"&gt;
+    &lt;title&gt;&lt;/title&gt;
+    &lt;style&gt;
+        .out{
+            width: 500px;
+            height: 500px;
+            border: 1px solid #000;
+            background-color: pink;
+            margin:100px auto;
+            transform:rotateY(66deg);
+            /*可以让里面的子盒子保持3d 效果，加给父盒子 */
+            /* preseve-3d: 让子盒子 位于3d空间里面*/
+            /*flat： 子盒子被扁平化*/
+            /*transform-style:preserve-3d;*/
+            transform-style: preserve-3d;
+            transition:transform 4s ;
+        }
+        .in{
+            width: 300px;
+            height: 400px;
+            background-color: red;
+            margin:50px auto;
+            transform:rotateX(132deg);
+            border: 1px solid #000;
+             transition:transform 2s ;
+        }
+.out:hover{
+  transform:rotateY(0deg);
+}
+.in:hover{
+ transform: rotateX(100deg);
+}
+    &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+&lt;div class="out"&gt;
+    &lt;div class="in"&gt;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+ &lt;head lang="en"&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;title&gt;&lt;/title&gt;
+  &lt;!--3D CSS rotate中 不管图形面  怎旋转改变 Z 轴永远 垂直于翻转的面  
+   X Y轴  永远基于 浏览器的  横轴 和纵轴
+  --&gt;
+  &lt;style&gt;
+   .box {
+    width: 250px;
+    height: 250px;
+    margin: 0 auto;
+    transform-style: preserve-3d;
+    transition: all 6s;
+    position: relative;
+    top: 200px;
+    animation: gun 8s linear infinite;
+   }
+   @keyframes gun {
+    0% {
+     transform: rotateX(0deg) rotateY(0deg);
+    }
+    100% {
+     transform: rotateX(360deg) rotateY(360deg);
+    }
+   }
+   /*.box:hover {
+    transform: rotateX(360deg) rotateY(360deg) rotateZ(360deg);
+   }*/
+   .box&gt;div {
+    position: absolute;
+    left: 0px;
+    top: 0px;
+    width: 250px;
+    height: 250px;
+    text-align: center;
+    line-height: 250px;
+    font-size: 50px;
+    font-weight: bold;
+    color: rgba(255, 0, 0, 0.6);
+    font-family: "微软雅黑";
+   }
+   .up:nth-child(1) {
+    transform-origin: top;
+    transform: rotateX(-90deg);
+    background-color: rgba(255, 0, 0, 0.3);
+   }
+   .down:nth-child(2) {
+    transform-origin: bottom;
+    transform: rotateX(90deg);
+    background-color: rgba(0, 0, 225, 0.3);
+   }
+   .left:nth-child(3) {
+    /*谷歌坐标系统中左右可能是个反的*/
+    transform-origin: left;
+    transform: rotateY(90deg);
+    background-color: rgba(255, 255, 0, 0.3);
+   }
+   .right:nth-child(4) {
+    /*谷歌坐标系统中左右可能是个反的*/
+    transform-origin: right;
+    transform: rotateY(-90deg);
+    background-color: rgba(150, 100, 30, 0.3);
+   }
+   .forward:nth-child(5) {
+    background-color: rgba(255, 0, 255, 0.3);
+    border-left: solid 2px black;
+    /*Y轴*/
+    border-bottom: solid 2px red;
+    /*X轴*/
+   }
+   .back:nth-child(6) {
+    background-color: rgba(154, 65, 65, 0.3);
+    transform: translateZ(-250px);
+   }
+  &lt;/style&gt;
+ &lt;/head&gt;
+ &lt;body&gt;
+  &lt;h3&gt;3D CSS rotate中 不管图形面  怎旋转改变 Z 轴永远 垂直于翻转的面  
+   X Y轴  永远基于 浏览器的  横轴 和纵轴&lt;/h3&gt;
+  &lt;div class="box"&gt;
+   &lt;div class="up"&gt;上&lt;/div&gt;
+   &lt;div class="down"&gt;下&lt;/div&gt;
+   &lt;div class="left"&gt;左&lt;/div&gt;
+   &lt;div class="right"&gt;右&lt;/div&gt;
+   &lt;div class="forward"&gt;前&lt;/div&gt;
+   &lt;div class="back"&gt;后&lt;/div&gt;
+  &lt;/div&gt;
+ &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立方体 案例  3D CSS rotate中 不管图形面  怎旋转改变 Z 轴永远 垂直于翻转的面  
+   X Y轴  永远基于 浏览器的  横轴 和纵轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> .box{
+            width: 200px;
+            height: 200px;
+            margin:100px ;
+            background-color: green;
+            /* 调用*/
+            /* infinite:无限次*/
+            /* animation: 动画名称 持续时间  执行次数  是否反向  运动曲线 延迟执行*/
+            /*animation: move 1s  alternate linear 3 ;*/
+            animation: gun 4s;
+        }
+        /*css3中的动画使用：
+           类似js中的函数：
+            ---先定义 ---再调用
+            js 定义函数：
+                function gun(){ 函数体}
+             调用： gun();
+           CSS3中的动画：
+            定义动画：
+                @keyframes 动画名{
+                    from{ 初始状态}
+                    to{结束状态}
+                }
+             调用：基本语法格式
+              animation: 动画名称 持续时间；
+        */
+        /* 定义动画*/
+        @keyframes move {
+            from{
+                transform: translateX(0px) rotate(0deg) ;
+            }
+            to{
+                transform: translateX(500px) rotate(555deg) ;
+            }
+        }
+        /* 定义多组动画*/
+           @keyframes gun {
+                0%{
+                    transform:translateX(0px) translateY(0px);
+                    background-color: green;
+                    border-radius: 0px;
+                }
+               25%{
+                   transform:translateX(500px) translateY(0px);
+               }
+               50%{
+                   transform:translateX(500px) translateY(300px);
+                   border-radius: 50%;
+               }
+               75%{
+                   transform:translateX(0px) translateY(300px);
+               }
+               100%{
+                   transform:translateX(0px) translateY(0px);
+                   background-color: red;
+                   border-radius: 0;
+               }
+           }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+ &lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;title&gt;&lt;/title&gt;
+ &lt;/head&gt;
+ &lt;style type="text/css"&gt;
+  .box{
+   width: 100px;
+   height: 100px;
+   background-color: green;
+   /*动画*/
+     /* animation: 动画名称 持续时间  执行次数  是否反向  运动曲线 延迟执行*/
+            /*animation: move 1s  alternate linear 3 ;*/
+   animation: move 3s  alternate linear 3;
+     /* 设置动画结束盒子盒子的状态
+                forwards：保持动画结束后的状态
+                backwards：保持动画开始前的状态*/
+                animation-fill-mode:forwards;
+  }
+  @keyframes move{
+   from{
+    transform: translateX(0px) rotateZ(0deg);
+   }
+   to{
+    transform: translateX(500px) rotateZ(100deg);
+   }
+  }
+ &lt;/style&gt;
+ &lt;body&gt;
+     &lt;div class="box"&gt;
+    &lt;/div&gt;
+ &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head lang="en"&gt;
+    &lt;meta charset="UTF-8"&gt;
+    &lt;title&gt;&lt;/title&gt;
+    &lt;style&gt;
+        .box{
+            width: 250px;
+            height: 250px;
+            background-color: green;
+            margin:100px;
+            /*animation: move 2s 3  alternate linear;*/
+            /* animation属性详解*/
+            /* 动画名称*/
+            animation-name: move;
+            /*animation-name: move;*/
+            /* 一次动画持续时间  前两属性是必须，且顺序固定*/
+            animation-duration: 3s;
+            /*animation-duration: 3s;*/
+            /* 动画执行次数  无数次：infinite*/
+            animation-iteration-count: 1;
+            /*animation-iteration-count: 1;*/
+            /* 动画的方向： normal 正常 ， alternate： 反向*/
+            animation-direction: alternate;
+            /*animation-direction: alternate;*/
+            /* 动画延迟执行*/
+            /*animation-delay: 1s;*/
+            /* 设置动画结束盒子盒子的状态
+                forwards：保持动画结束后的状态
+                backwards：保持动画开始前的状态*/
+                animation-fill-mode:forwards;
+                /*animation-fill-mode: forwards;*/
+            /* 运动曲线  linear   ease-in-out 由慢到快再到慢。  steps() 分步执行  属性看文件 有 很多*/
+            /*animation-timing-function:ease-in;*/
+            animation-timing-function: steps(8);
+        }
+        @keyframes move{
+            0%{
+            }
+            100%{
+                transform:translateX(500px) rotate(345deg);
+            }
+        }
+    &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div class="box"&gt;&lt;/div&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+ &lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;title&gt;&lt;/title&gt;
+ &lt;/head&gt;
+ &lt;style type="text/css"&gt;
+  .box{
+   width: 100px;
+   height: 3px;
+    background-color: green;
+   transform-origin: top left;
+   animation: zhizhen 60s normal infinite steps(60);
+   margin: 300px auto;
+  }
+  @keyframes zhizhen{
+   from{
+    transform: rotate(0deg);
+   }
+   to{
+    transform: rotate(360deg);
+   }
+  }
+ &lt;/style&gt;
+ &lt;body&gt;
+  &lt;div class="box"&gt;
+  &lt;/div&gt;
+ &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画步长的使用  steps(60);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css 弹性布局-伸 缩布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引入web字体图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多媒体播放器:视频播放标签 &lt;video src="video/fun.mp4"&gt;&lt;/video&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+ &lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;title&gt;&lt;/title&gt;
+ &lt;/head&gt;
+ &lt;style type="text/css"&gt;
+  video{
+   width: 1000px;
+   height: 550px;
+   margin: 0;
+  }
+ &lt;/style&gt;
+ &lt;body&gt;
+  &lt;video src="video/fun.mp4"&gt;&lt;/video&gt;
+  &lt;button id="ting"&gt;暂停&lt;/button&gt;
+  &lt;button id="bo"&gt;播放&lt;/button&gt;
+  &lt;script type="text/javascript"&gt;
+   //获取播放器对象
+  var video= document.getElementsByTagName("video")[0];
+  var ting =document.getElementById("ting");
+  var bo= document.getElementById("bo")
+  bo.onclick=function(){
+   //视频播放
+   video.play();
+     //全屏 
+   video.webkitRequestFullScreen();
+  }
+  ting.onclick=function () {
+   //视频停止播放
+   video.pause();
+  }
+  //播放时间更新 事件
+  video.ontimeupdate=function(){
+   //当前视频播放的进度   以秒计算
+   console.log("当前视频已经播放了的时间长度:",video.currentTime)
+  }
+//  当浏览器可以播放音频/视频时
+  video.oncanplay=function () {
+   //当前视频的长度
+  console.log("当前视频播放的总长度:",video.duration)
+   //当前视频播放速度
+   console.log("当前视频播放速度:",video.playbackRate)
+   //设置播放速度
+   video.playbackRate=2;
+   console.log("当前视频播放速度:",video.playbackRate)
+  }
+  &lt;/script&gt;
+ &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  //拖拽开始
+   box.ondragstart=function () {
+    console.log("拖拽开始了........")
+   }
+   //拖拽结束
+   box.ondragend=function () {
+    console.log("拖拽结束........")
+   }
+  //  拖拽离开 :鼠标拖拽时离开被拖拽的元素是触发
+  box.ondragleave=function () {
+   console.log("鼠标离开正在拖拽的元素........")
+  }
+  //拖拽中
+  box.ondrag=function () {
+   console.log("正在拖拽........")
+  }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖拽到目标的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+ &lt;head&gt;
+  &lt;meta charset="UTF-8"&gt;
+  &lt;title&gt;&lt;/title&gt;
+     &lt;style&gt;
+        .one{
+            width: 100px;
+            height: 100px;
+            border: 1px solid #000;
+            background-color: red;
+        }
+        .two{
+            position: relative;
+            width: 400px;
+            height: 400px;
+            left:500px;
+            top:100px;
+            border: 1px solid #000;
+            background-color: blue;
+        }
+    &lt;/style&gt;
+ &lt;/head&gt;
+ &lt;body&gt;
+  &lt;div class="one" draggable="true"  &gt;draggable="true" 允许拖拽&lt;/div&gt;
+    &lt;div class="two"&gt;&lt;/div&gt;
+    &lt;script type="text/javascript"&gt;
+   var two=  document.querySelector(".two")
+   ////        当被拖拽元素进入目标元素时触发
+   two.ondragenter=function () {
+    console.log("当被拖拽元素进入目标元素.........")
+   }
+   ////        当被拖拽元素离开目标元素时触发
+   two.ondragleave=function () {
+    console.log("当被拖拽元素离开目标元素时触发.....")
+   }
+   //      当 拖拽元素在 目标元素上是 连续触发
+   two.ondragover=function (e) {//默认
+//  阻止拖拽事件的默认行为；   e.preventDefault();这个不添加会导致  ondrop 事件无效
+//阻止冒泡是event.stopPropagation()。
+//event.preventDefault()是阻止默认行为啊！！ a元素的默认行为点击会跳转
+/*当鼠标拖着图片进入two的区域时，会不停的触发dragover事件。
+鼠标松开就应该会触发drop事件。
+不阻止two的dragover事件，two的drop事件就被触发吗？*/
+/*总结
+当我们将，&lt;p&gt;标签的内容拖动到指定位置并松开鼠标时，在这一时刻会先触发一个ondragover事件然后才会触发ondrop事件，
+但在ondragover中的默认动作（就如同&lt;a&gt;标签的默认跳转动作一样)可能会阻止ondrop事件的发生(不清楚具体原因)，
+此时需要调用event.preventDefault（当ondragover事件被触发时会先执行被赋予的触发函数然后才会执行默认动作)阻止默认动作的执行.
+*/
+            e.preventDefault();
+    console.log("当 拖拽元素在 目标元素上是 连续触发.......")
+   }
+   //        当在目标元素上松开鼠标是触发
+   two.ondrop=function () {
+    console.log(" 当在目标元素上松开鼠标是触发.......")
+   }
+    &lt;/script&gt;
+ &lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   // sessionStorage  session（会话，会议） 5M  当窗口关闭是数据销毁  内存
+        // localStorage    20M 永久生效 ，除非手动删除  清理垃圾  硬盘上
+ window.sessionStorage.setItem('pwd','123456');
+            window.sessionStorage.setItem('age',18);
+ window.localStorage.setItem('userName',txt.value);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head lang="en"&gt;
+    &lt;meta charset="UTF-8"&gt;
+    &lt;title&gt;&lt;/title&gt;
+&lt;/head&gt;
+&lt;body&gt;
+ 192.168.1.10
+ 使用手机连接电脑测试  
+ 关闭 手机的网络 就会弹出
+&lt;script&gt;
+    window.addEventListener('online',function(){
+       alert('网络连接已建立！');
+    });
+    window.addEventListener('offline',function(){
+        alert('网络连接已断开！');
+    })
+&lt;/script&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏 兼容性写法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;!DOCTYPE html&gt;
+&lt;html&gt;
+&lt;head lang="en"&gt;
+    &lt;meta charset="UTF-8"&gt;
+    &lt;title&gt;&lt;/title&gt;
+    &lt;style&gt;
+        .box{
+            width: 300px;
+            height: 300px;
+            background-color: green;
+        }
+    &lt;/style&gt;
+&lt;/head&gt;
+&lt;body&gt;
+    &lt;div class="box"&gt;&lt;/div&gt;
+    &lt;script&gt;
+        var box=document.querySelector('.box');
+//
+//        if(box.requestFullscreen){
+//            box.requestFullscreen();
+//        }else if(box.webkitRequestFullScreen){
+//            box.webkitRequestFullScreen();
+//        }else if(box.mozRequestFullScreen){
+//            box.mozRequestFullScreen();
+//        }
+        box.onclick=function(){
+//            var docElm = document.documentElement;
+//        var docElm = document.querySelector('.box');
+//            if (box.requestFullscreen) {
+//                box.requestFullscreen();
+//            }
+//            else if (box.mozRequestFullScreen) {
+//                box.mozRequestFullScreen();
+//            }
+//            else if (box.webkitRequestFullScreen) {
+//                box.webkitRequestFullScreen();
+//            }
+            if(box.requestFullscreen){
+                box.requestFullscreen();
+            }else if(box.webkitRequestFullScreen){
+                box.webkitRequestFullScreen();
+            }else if(box.mozRequestFullScreen){
+                box.mozRequestFullScreen();
+            }
+        }
+    &lt;/script&gt;
+&lt;/body&gt;
+&lt;/html&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2552,8 +3803,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2665,6 +3934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3138,7 +4413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3324,6 +4599,17 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3416,6 +4702,16 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3667,8 +4963,8 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>149691</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>135075</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>485595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3737,6 +5033,99 @@
         <a:xfrm>
           <a:off x="4907280" y="15030670"/>
           <a:ext cx="7223760" cy="3083388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>48899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79263193-EE85-4772-BA43-2598F735CEBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="548640" y="1021080"/>
+          <a:ext cx="3923809" cy="5047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180390</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>153975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63029DB8-7858-4FFE-AC39-1DE4F2B7763D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="7360920"/>
+          <a:ext cx="4676190" cy="2638095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4013,7 +5402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4028,22 +5417,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
@@ -4088,7 +5477,7 @@
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="90" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -4106,7 +5495,7 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="83"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="6" t="s">
         <v>16</v>
       </c>
@@ -4120,7 +5509,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="83" t="s">
+      <c r="F10" s="90" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -4136,7 +5525,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="83"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="6" t="s">
         <v>20</v>
       </c>
@@ -4162,14 +5551,14 @@
     </row>
     <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
     </row>
     <row r="15" spans="1:14" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="18" t="s">
@@ -4243,12 +5632,12 @@
     </row>
     <row r="24" spans="3:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="3:8" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
     </row>
     <row r="26" spans="3:8" ht="43.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="25" t="s">
@@ -4330,7 +5719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA07F652-E897-4BC1-9637-135189AC026D}">
   <dimension ref="F38:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -4344,11 +5733,11 @@
   <sheetData>
     <row r="38" spans="6:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="6:8" s="1" customFormat="1" ht="49.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
     </row>
     <row r="40" spans="6:8" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" s="18" t="s">
@@ -4448,11 +5837,11 @@
     </row>
     <row r="55" spans="6:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58" s="86" t="s">
+      <c r="F58" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
+      <c r="G58" s="93"/>
+      <c r="H58" s="93"/>
     </row>
     <row r="59" spans="6:9" ht="69" x14ac:dyDescent="0.25">
       <c r="F59" s="33" t="s">
@@ -4467,12 +5856,12 @@
     </row>
     <row r="61" spans="6:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="6:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="G62" s="88"/>
-      <c r="H62" s="88"/>
-      <c r="I62" s="88"/>
+      <c r="G62" s="95"/>
+      <c r="H62" s="95"/>
+      <c r="I62" s="95"/>
     </row>
     <row r="63" spans="6:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F63" s="36" t="s">
@@ -4544,7 +5933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A3C237-8AED-4E76-A51A-1BC191CC39CB}">
   <dimension ref="F6:K45"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -4559,13 +5948,13 @@
   <sheetData>
     <row r="6" spans="6:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="6:10" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" spans="6:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="38" t="s">
@@ -4585,56 +5974,56 @@
       </c>
     </row>
     <row r="9" spans="6:10" ht="27.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="106" t="s">
         <v>108</v>
       </c>
       <c r="H9" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="101" t="s">
+      <c r="J9" s="108" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="6:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="98"/>
-      <c r="G10" s="99"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="6:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="98" t="s">
+      <c r="F11" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="106" t="s">
         <v>109</v>
       </c>
       <c r="H11" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="107" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="108" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="12" spans="6:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="98"/>
-      <c r="G12" s="99"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
       <c r="H12" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="6:10" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="41" t="s">
@@ -4700,41 +6089,41 @@
       <c r="H19" s="51"/>
     </row>
     <row r="20" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="98"/>
     </row>
     <row r="21" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F21" s="92"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="98"/>
     </row>
     <row r="22" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F22" s="92"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="91"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="98"/>
     </row>
     <row r="23" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="92"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="91"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="98"/>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F24" s="92"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="98"/>
     </row>
     <row r="25" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="92"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="26" spans="6:10" ht="318" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="95"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
     </row>
     <row r="27" spans="6:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="6:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4883,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD915003-F7F7-4B5E-9655-739FFBEC2F17}">
   <dimension ref="G8:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -4895,14 +6284,14 @@
   <sheetData>
     <row r="8" spans="7:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="7:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="110" t="s">
         <v>122</v>
       </c>
-      <c r="J9" s="103"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" spans="7:10" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="44"/>
-      <c r="I10" s="102" t="s">
+      <c r="I10" s="109" t="s">
         <v>127</v>
       </c>
       <c r="J10" s="47" t="s">
@@ -4910,37 +6299,37 @@
       </c>
     </row>
     <row r="11" spans="7:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="102"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="7:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="102"/>
+      <c r="I12" s="109"/>
       <c r="J12" s="47" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="13" spans="7:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="102"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="47" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="14" spans="7:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="102"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="15" spans="7:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I15" s="102"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="47" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="16" spans="7:10" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="109" t="s">
         <v>131</v>
       </c>
       <c r="J16" s="48" t="s">
@@ -4948,13 +6337,13 @@
       </c>
     </row>
     <row r="17" spans="9:10" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I17" s="102"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="18" spans="9:10" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I18" s="102"/>
+      <c r="I18" s="109"/>
       <c r="J18" s="48" t="s">
         <v>130</v>
       </c>
@@ -4975,8 +6364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D38A1E-B1F8-4509-897B-AE148B924674}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5001,7 +6390,7 @@
         <v>162</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5049,23 +6438,23 @@
     <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="66" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="111" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="66" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="104"/>
+        <v>209</v>
+      </c>
+      <c r="B14" s="111"/>
     </row>
     <row r="15" spans="1:7" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="66" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="104"/>
+        <v>208</v>
+      </c>
+      <c r="B15" s="111"/>
     </row>
     <row r="16" spans="1:7" ht="59.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="66" t="s">
@@ -5074,11 +6463,11 @@
       <c r="B16" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="66" t="s">
@@ -5094,7 +6483,7 @@
         <v>199</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5111,7 +6500,7 @@
         <v>201</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="56.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5179,50 +6568,55 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="145.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="71" t="s">
+      <c r="A27" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="77" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="176.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="B31" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
     <row r="35" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="73" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B36" s="66"/>
     </row>
     <row r="37" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="66" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B37" s="66"/>
     </row>
     <row r="38" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="66" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B38" s="66"/>
     </row>
     <row r="39" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B39" s="66"/>
     </row>
     <row r="40" spans="1:2" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="66" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B40" s="66"/>
     </row>
@@ -5230,47 +6624,47 @@
     <row r="52" spans="1:1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="75" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="75" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="75" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="75" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="75" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="75" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="75" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="76" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5287,47 +6681,395 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30803652-3E11-45CD-B7FC-8231D77B29E6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.44140625" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" style="80" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="81" customWidth="1"/>
+    <col min="3" max="5" width="32.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="153.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="79" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>211</v>
+    </row>
+    <row r="5" spans="1:7" ht="358.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="83" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="234.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="386.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="304.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="83" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="78" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="318.60000000000002" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="249.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="186.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="387.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="82" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="139.19999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="387.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="291" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="208.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="68" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="194.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="82" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="332.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="111.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D3639BD-F51E-4574-AEB9-282190E93149}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="89" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="263.39999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="346.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="222" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="119" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="263.39999999999998" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="119" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="119" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="120" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="119" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="409.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="119" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1BB119-DFFA-4D53-8650-D7B13B9E81A5}">
+  <dimension ref="A2:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" ht="60" x14ac:dyDescent="1">
+      <c r="A2" s="115" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="B35" s="116" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE2AE1-4791-4C35-A02B-F4696DA03EF7}">
+  <dimension ref="B1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="192" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="117" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="118" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="221.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="117" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="117" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="373.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="117" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
